--- a/02_Data/Population_2020.xlsx
+++ b/02_Data/Population_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\Last work\ESPON-DATA\02_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D91B0-CCED-471E-8E9F-1027B36EE0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E797565-5775-4906-8F20-66C06ECBAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43770" yWindow="1110" windowWidth="12750" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="3585" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12762,7 +12762,7 @@
   <dimension ref="A1:C2776"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2575" workbookViewId="0">
-      <selection activeCell="D2583" sqref="D2583"/>
+      <selection activeCell="E2585" sqref="E2585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41207,8 +41207,8 @@
         <v>3153</v>
       </c>
       <c r="C2586">
-        <f>SUM(C2588:C2593)</f>
-        <v>2365982</v>
+        <f>SUM(C2587:C2593)</f>
+        <v>2656980</v>
       </c>
     </row>
     <row r="2587" spans="1:3" x14ac:dyDescent="0.25">
